--- a/fuelhunter_languages.xlsx
+++ b/fuelhunter_languages.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="659">
   <si>
     <t>COMMENT</t>
   </si>
@@ -175,6 +175,24 @@
     <t>Ну ладно</t>
   </si>
   <si>
+    <t>yes_button_title</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Jā</t>
+  </si>
+  <si>
+    <t>hey_alert_title</t>
+  </si>
+  <si>
+    <t>Hey</t>
+  </si>
+  <si>
+    <t>Uzmanību</t>
+  </si>
+  <si>
     <t>no_data_label_downloading_active</t>
   </si>
   <si>
@@ -196,7 +214,7 @@
     <t>Currently there is no data available. Check again later.</t>
   </si>
   <si>
-    <t>Patreiz nav pieejami dati. Mēģiniet vēlreiz vēlāk.</t>
+    <t>Pašreiz nav pieejami dati. Mēģiniet vēlreiz vēlāk.</t>
   </si>
   <si>
     <t>В настоящее время нет доступных данных. Проверьте позже.</t>
@@ -505,7 +523,7 @@
     <t>There are no cities matching the search term.\n\n Unfortunately, it is not possible to specify villages and other less populated areas at this time.</t>
   </si>
   <si>
-    <t>Nav pilsētu, kas atbilstu meklētajam vārdam.\n\nDiemžēl patreiz nevar norādīt ciematus un citas mazāk apdzīvotas vietas.</t>
+    <t>Nav pilsētu, kas atbilstu meklētajam vārdam.\n\nDiemžēl pašreiz nevar norādīt ciematus un citas mazāk apdzīvotas vietas.</t>
   </si>
   <si>
     <t>Не найдено городов, соответствующих поисковому запросу.\n\nК сожалению, в настоящее время нельзя указать деревни и другие менее населенные районы.</t>
@@ -787,7 +805,7 @@
     <t>We currently obtain the lowest price data from fuel companies' websites and waze, so at present this data is for information purposes only. In addition, the website does not update its information on weekends and public holidays. Waze, on the other hand, shows the prices obtained in the last 24 hours.\n\nHowever, we believe that any car rider will only benefit if they know when a fuel company will drop their fuel prices and where to find the gas station at the cheapest price.\n\nCurrently we are getting data from companies:</t>
   </si>
   <si>
-    <t>Zemāko cenu datus patreiz iegūstam no degvielas kompāniju mājaslapām un waze, tādēļ patreiz šiem datiem ir tikai informatīva nozīme. Turklāt mājaslapā tā informācija netiek atjaunota brīvdienās un svētku dienās. Savukārt no waze tiek rādītas cenas, kuras iegūtas pēdējo 24 stundu laikā.\n\nTomēr, uzskatām, ka jebkurš autobraucējs būs tikai ieguvējs, ja zinās kad kādai degvielas kompānijai krītas degvielas cenas un kur atrast degvielas uzpildes staciju ar lētāko cenu.\n\nPatreiz iegūstam datus no kompānijām:</t>
+    <t>Zemāko cenu datus pašreiz iegūstam no degvielas kompāniju mājaslapām un waze, tādēļ pašreiz šiem datiem ir tikai informatīva nozīme. Turklāt mājaslapā tā informācija netiek atjaunota brīvdienās un svētku dienās. Savukārt no waze tiek rādītas cenas, kuras iegūtas pēdējo 24 stundu laikā.\n\nTomēr, uzskatām, ka jebkurš autobraucējs būs tikai ieguvējs, ja zinās kad kādai degvielas kompānijai krītas degvielas cenas un kur atrast degvielas uzpildes staciju ar lētāko cenu.\n\nPašreiz iegūstam datus no kompānijām:</t>
   </si>
   <si>
     <t>В настоящее время мы получаем самые низкие данные о ценах с сайтов топливных компаний и waze, поэтому в настоящее время эти данные только для информации. Кроме того, веб-сайт не обновляет свою информацию в выходные и праздничные дни. Waze, с другой стороны, показывает цены, полученные за последние 24 часа.\n\nОднако мы считаем, что любой водитель автомобиля выиграет, только если узнает, что топливная компания снизит цены на топливо и где найти заправочную станцию ​​по самой низкой цене. \n\nданные:</t>
@@ -943,7 +961,7 @@
     <t>Unfortunately, Fuel Hunter is no longer able to retrieve data from this company at this time</t>
   </si>
   <si>
-    <t>Diemžēl Fuel Hunter patreiz vairs nevar iegūt datus no šīs kompānijas</t>
+    <t>Diemžēl Fuel Hunter pašreiz vairs nevar iegūt datus no šīs kompānijas</t>
   </si>
   <si>
     <t>К сожалению, в настоящее время Fuel Hunter больше не может получать данные от этой компании</t>
@@ -955,7 +973,7 @@
     <t>Unfortunately, Fuel Hunter is no longer able to retrieve data from these companies at this time</t>
   </si>
   <si>
-    <t>Diemžēl Fuel Hunter patreiz vairs nevar iegūt datus no šīm kompānijām</t>
+    <t>Diemžēl Fuel Hunter pašreiz vairs nevar iegūt datus no šīm kompānijām</t>
   </si>
   <si>
     <t>К сожалению, в настоящее время Fuel Hunter больше не может получать данные от этих компаний</t>
@@ -1024,10 +1042,181 @@
     <t>Fuel Hunter currently only works in the territory of Latvia.\n\nThe application uses GPS to determine where you are currently.\n\nIf GPS is off, the application will only show data from Riga.</t>
   </si>
   <si>
-    <t>Fuel Hunter patreiz darbojas tikai Latvijas teritorijā.\n\nAplikācija izmanto GPS lai noteiktu kur patreiz atrodaties un rādīs lētākās atrodamās cenas 10 km rādiusā.\n\nJa GPS ir izslēgts, tad aplikācija rādīs lētākās atrodamās cenas Rīgā.</t>
+    <t>Fuel Hunter pašreiz darbojas tikai Latvijas teritorijā.\n\nAplikācija izmanto GPS lai noteiktu kur pašreiz atrodaties un rādīs lētākās atrodamās cenas 10 km rādiusā.\n\nJa GPS ir izslēgts, tad aplikācija rādīs lētākās atrodamās cenas Rīgā.</t>
   </si>
   <si>
     <t>Fuel Hunter в настоящее время работает только на территории Латвии.\n\nПриложение использует GPS, чтобы определить, где вы находитесь.\n\nЕсли GPS выключен, приложение будет показывать только данные из Риги.</t>
+  </si>
+  <si>
+    <t>#AREAS</t>
+  </si>
+  <si>
+    <t>areas_title</t>
+  </si>
+  <si>
+    <t>Areas</t>
+  </si>
+  <si>
+    <t>Vietas</t>
+  </si>
+  <si>
+    <t>areas_gps_calculated_location</t>
+  </si>
+  <si>
+    <t>GPS calculated location</t>
+  </si>
+  <si>
+    <t>GPS noteiktā lokācija</t>
+  </si>
+  <si>
+    <t>areas_create_new_area</t>
+  </si>
+  <si>
+    <t>New Area</t>
+  </si>
+  <si>
+    <t>Jauna vieta</t>
+  </si>
+  <si>
+    <t>areas_create_new_area_description</t>
+  </si>
+  <si>
+    <t>Create new area</t>
+  </si>
+  <si>
+    <t>Izveido jaunu vietu</t>
+  </si>
+  <si>
+    <t>areas_delete_alert_text</t>
+  </si>
+  <si>
+    <t>Do you really want to delete this Area?</t>
+  </si>
+  <si>
+    <t>Vai tiešām vēlaties dzēst šo vietu?</t>
+  </si>
+  <si>
+    <t>Rīga - 2 degvielas uzpildes kompānijas</t>
+  </si>
+  <si>
+    <t>areas_fuel_companies</t>
+  </si>
+  <si>
+    <t>fuel companies</t>
+  </si>
+  <si>
+    <t>degvielas uzpildes kompānijas</t>
+  </si>
+  <si>
+    <t>areas_fuel_company</t>
+  </si>
+  <si>
+    <t>fuel company</t>
+  </si>
+  <si>
+    <t>degvielas uzpildes kompānija</t>
+  </si>
+  <si>
+    <t>areas_name_title_description</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Nosaukums</t>
+  </si>
+  <si>
+    <t>areas_cheapest_only_title</t>
+  </si>
+  <si>
+    <t>Cheapest prices only</t>
+  </si>
+  <si>
+    <t>Tikai lētākās cenas</t>
+  </si>
+  <si>
+    <t>areas_cheapest_only_description</t>
+  </si>
+  <si>
+    <t>Only the cheapest prices will be shown</t>
+  </si>
+  <si>
+    <t>Sarakstā tiks rādītas tikai lētākās cenas no atzīmētajām kompānijām</t>
+  </si>
+  <si>
+    <t>areas_notifs_title</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>areas_notifs_descriptions_disabled</t>
+  </si>
+  <si>
+    <t>Get notified when the price of fuel drops</t>
+  </si>
+  <si>
+    <t>areas_notifs_descriptions_enabled</t>
+  </si>
+  <si>
+    <t>areas_notif_1_cent</t>
+  </si>
+  <si>
+    <t>cent</t>
+  </si>
+  <si>
+    <t>centu</t>
+  </si>
+  <si>
+    <t>цент</t>
+  </si>
+  <si>
+    <t>areas_notif_more_cents</t>
+  </si>
+  <si>
+    <t>cents</t>
+  </si>
+  <si>
+    <t>centiem</t>
+  </si>
+  <si>
+    <t>центов</t>
+  </si>
+  <si>
+    <t>areas_delete_title</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Dzēst</t>
+  </si>
+  <si>
+    <t>areas_delete_description</t>
+  </si>
+  <si>
+    <t>If not necessary anymore..</t>
+  </si>
+  <si>
+    <t>Ja vairs nav aktuāli..</t>
+  </si>
+  <si>
+    <t>areas_section_companies_in_radius</t>
+  </si>
+  <si>
+    <t>Companies found in radius</t>
+  </si>
+  <si>
+    <t>Rādiusā atrodamās kompānijas</t>
+  </si>
+  <si>
+    <t>areas_section_other_options</t>
+  </si>
+  <si>
+    <t>Other options</t>
+  </si>
+  <si>
+    <t>Citas iespējas</t>
   </si>
   <si>
     <t>#MAP</t>
@@ -2333,98 +2522,104 @@
         <v>56</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5"/>
       <c r="B17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="F17" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
         <v>77</v>
       </c>
@@ -2442,274 +2637,268 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="F21" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5"/>
       <c r="B22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="E22" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5"/>
       <c r="B24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="F24" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5"/>
       <c r="B25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="F25" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="E26" s="4" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5"/>
       <c r="B29" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="30">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="A30" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="5"/>
       <c r="B31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="F31" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="F32" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="F33" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5"/>
       <c r="B34" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="F34" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5"/>
       <c r="B35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>132</v>
@@ -2726,241 +2915,247 @@
       <c r="B36" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="4">
-        <v>95.0</v>
-      </c>
-      <c r="D36" s="4">
-        <v>95.0</v>
-      </c>
-      <c r="E36" s="4">
-        <v>95.0</v>
-      </c>
-      <c r="F36" s="4">
-        <v>95.0</v>
+      <c r="C36" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5"/>
       <c r="B37" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="4">
-        <v>98.0</v>
-      </c>
-      <c r="D37" s="4">
-        <v>98.0</v>
-      </c>
-      <c r="E37" s="4">
-        <v>98.0</v>
-      </c>
-      <c r="F37" s="4">
-        <v>98.0</v>
+        <v>137</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>126</v>
+        <v>140</v>
+      </c>
+      <c r="C38" s="4">
+        <v>95.0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>95.0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>95.0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>95.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="4">
+        <v>98.0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>98.0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>98.0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>98.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5"/>
-      <c r="B41" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="A41" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>144</v>
-      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42">
       <c r="A42" s="5"/>
       <c r="B42" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="F42" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5"/>
       <c r="B43" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="F43" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5"/>
       <c r="B44" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="F44" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5"/>
       <c r="B45" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="F45" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5"/>
       <c r="B46" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="F46" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5"/>
       <c r="B47" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="F47" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5"/>
       <c r="B48" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="F48" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5"/>
+      <c r="B49" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
+      <c r="D49" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="E49" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="A50" s="5"/>
       <c r="B50" s="4" t="s">
         <v>176</v>
       </c>
@@ -2978,198 +3173,192 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5"/>
-      <c r="B51" s="4" t="s">
+      <c r="A51" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="5"/>
-      <c r="B52" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="F52" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5"/>
       <c r="B53" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="F53" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5"/>
       <c r="B54" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>195</v>
-      </c>
       <c r="F54" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5"/>
       <c r="B55" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>200</v>
-      </c>
       <c r="F55" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5"/>
       <c r="B56" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5"/>
       <c r="B57" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>209</v>
-      </c>
       <c r="F57" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="5"/>
       <c r="B58" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="F58" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5"/>
       <c r="B59" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="F59" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="5"/>
       <c r="B60" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="5"/>
       <c r="B61" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>225</v>
@@ -3199,34 +3388,34 @@
         <v>230</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>156</v>
+        <v>231</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>157</v>
+        <v>231</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>156</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="5"/>
       <c r="B64" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E64" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="65">
@@ -3235,88 +3424,88 @@
         <v>236</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>240</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="5"/>
       <c r="B66" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="5"/>
       <c r="B67" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="F67" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="5"/>
       <c r="B68" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="F68" s="4" t="s">
-        <v>140</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="5"/>
       <c r="B69" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="F69" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="70">
@@ -3328,281 +3517,287 @@
         <v>257</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>258</v>
+        <v>146</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>259</v>
+        <v>147</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>258</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="5"/>
       <c r="B71" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="E71" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="F71" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="5"/>
       <c r="B72" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="E72" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="F72" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="5"/>
       <c r="B73" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="E73" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F73" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="5"/>
       <c r="B74" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>275</v>
-      </c>
       <c r="F74" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="5"/>
       <c r="B75" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="E75" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>279</v>
-      </c>
       <c r="F75" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="5"/>
       <c r="B76" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="F76" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="5"/>
       <c r="B77" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="F77" s="4" t="s">
-        <v>168</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="5"/>
       <c r="B78" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="F78" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="5"/>
       <c r="B79" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="F79" s="4" t="s">
-        <v>294</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="5"/>
       <c r="B80" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="F80" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="5"/>
       <c r="B81" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="E81" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>303</v>
-      </c>
       <c r="F81" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="5"/>
       <c r="B82" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="E82" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>307</v>
-      </c>
       <c r="F82" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="5"/>
       <c r="B83" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>311</v>
-      </c>
       <c r="F83" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="5"/>
       <c r="B84" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="E84" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="F84" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5"/>
+      <c r="B85" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="s">
+      <c r="D85" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
+      <c r="E85" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="4" t="s">
-        <v>317</v>
-      </c>
+      <c r="A86" s="5"/>
       <c r="B86" s="4" t="s">
         <v>318</v>
       </c>
@@ -3620,97 +3815,97 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>325</v>
-      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B88" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>329</v>
+      <c r="F88" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="D89" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="E89" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="F89" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="B90" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="5"/>
-      <c r="B90" s="4" t="s">
+      <c r="C90" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="D90" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="B91" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="s">
+      <c r="D91" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
+      <c r="E91" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="4" t="s">
-        <v>340</v>
-      </c>
+      <c r="A92" s="5"/>
       <c r="B92" s="4" t="s">
         <v>341</v>
       </c>
@@ -3728,2060 +3923,2270 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="5"/>
-      <c r="B93" s="4" t="s">
+      <c r="A93" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>347</v>
-      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
     </row>
     <row r="94">
       <c r="A94" s="5"/>
       <c r="B94" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="5"/>
       <c r="B95" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5"/>
+      <c r="B96" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="D96" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>360</v>
-      </c>
       <c r="E96" s="4" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="5"/>
       <c r="B97" s="4" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="5"/>
       <c r="B98" s="4" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="E101" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D102" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E102" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="5"/>
-      <c r="B100" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="D103" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="E103" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="C104" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="5"/>
-      <c r="B101" s="4" t="s">
+      <c r="D104" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D105" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="C106" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="C107" s="4" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="4" t="s">
+      <c r="D107" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="E107" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="F107" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="E102" s="4" t="s">
+      <c r="C108" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="F102" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="4" t="s">
+      <c r="D108" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="E108" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="F108" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="E103" s="4" t="s">
+      <c r="C109" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="4" t="s">
+      <c r="D109" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="E109" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C110" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D110" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E110" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="D111" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="E111" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="C112" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="D112" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="F105" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="5"/>
-      <c r="B106" s="4" t="s">
+      <c r="E112" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="5"/>
-      <c r="B107" s="4" t="s">
+      <c r="B114" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C114" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="5"/>
-      <c r="B108" s="4" t="s">
+      <c r="D114" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="E114" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="5"/>
-      <c r="B111" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="5"/>
-      <c r="B114" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>419</v>
-      </c>
       <c r="F114" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="5"/>
       <c r="B115" s="4" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="5"/>
       <c r="B116" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="5"/>
       <c r="B117" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5"/>
+      <c r="B119" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E119" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="F119" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="5"/>
+      <c r="B120" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="C120" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="D120" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="F117" s="4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="5"/>
-      <c r="B118" s="4" t="s">
+      <c r="E120" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="F120" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="B121" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="C121" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="F118" s="6" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="s">
+      <c r="D121" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="4" t="s">
+      <c r="E121" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
+      <c r="F121" s="4" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="5"/>
       <c r="B122" s="4" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="5"/>
       <c r="B123" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E123" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="E123" s="4" t="s">
+      <c r="F123" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="F123" s="4" t="s">
-        <v>445</v>
-      </c>
     </row>
     <row r="124">
-      <c r="A124" s="5"/>
+      <c r="A124" s="4" t="s">
+        <v>447</v>
+      </c>
       <c r="B124" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="5"/>
+      <c r="A125" s="4" t="s">
+        <v>451</v>
+      </c>
       <c r="B125" s="4" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="5"/>
+      <c r="A126" s="4" t="s">
+        <v>455</v>
+      </c>
       <c r="B126" s="4" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="5"/>
+      <c r="A127" s="4" t="s">
+        <v>460</v>
+      </c>
       <c r="B127" s="4" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="5"/>
       <c r="B128" s="4" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="5"/>
       <c r="B129" s="4" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="5"/>
       <c r="B130" s="4" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="5"/>
-      <c r="B131" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>461</v>
-      </c>
+      <c r="A131" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
     </row>
     <row r="132">
-      <c r="A132" s="5"/>
+      <c r="A132" s="4" t="s">
+        <v>472</v>
+      </c>
       <c r="B132" s="4" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>463</v>
+        <v>330</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>463</v>
+        <v>331</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>464</v>
+        <v>332</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="5"/>
       <c r="B133" s="4" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>465</v>
+        <v>263</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>465</v>
+        <v>264</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>466</v>
+        <v>265</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>465</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="5"/>
-      <c r="B134" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>467</v>
-      </c>
+      <c r="A134" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
     </row>
     <row r="135">
-      <c r="A135" s="5"/>
+      <c r="A135" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="B135" s="4" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>469</v>
+        <v>325</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>469</v>
+        <v>326</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>470</v>
+        <v>327</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>469</v>
+        <v>326</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="5"/>
       <c r="B136" s="4" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="5"/>
       <c r="B137" s="4" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="5"/>
       <c r="B138" s="4" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="5"/>
       <c r="B139" s="4" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="5"/>
       <c r="B140" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>479</v>
+        <v>495</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="5"/>
-      <c r="B141" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>481</v>
-      </c>
+      <c r="A141" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
     </row>
     <row r="142">
-      <c r="A142" s="5"/>
+      <c r="A142" s="4" t="s">
+        <v>500</v>
+      </c>
       <c r="B142" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>483</v>
+        <v>501</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>502</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="5"/>
-      <c r="B143" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>485</v>
-      </c>
+      <c r="A143" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
     </row>
     <row r="144">
       <c r="A144" s="5"/>
       <c r="B144" s="4" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="5"/>
       <c r="B145" s="4" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="5"/>
       <c r="B146" s="4" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="5"/>
       <c r="B147" s="4" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="5"/>
       <c r="B148" s="4" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="5"/>
       <c r="B149" s="4" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="5"/>
       <c r="B150" s="4" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="5"/>
       <c r="B151" s="4" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="5"/>
       <c r="B152" s="4" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="5"/>
       <c r="B153" s="4" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="5"/>
       <c r="B154" s="4" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="5"/>
       <c r="B155" s="4" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="5"/>
       <c r="B156" s="4" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="5"/>
       <c r="B157" s="4" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="5"/>
       <c r="B158" s="4" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="5"/>
       <c r="B159" s="4" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="5"/>
       <c r="B160" s="4" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="5"/>
       <c r="B161" s="4" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="5"/>
       <c r="B162" s="4" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="5"/>
       <c r="B163" s="4" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="5"/>
       <c r="B164" s="4" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="5"/>
       <c r="B165" s="4" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="5"/>
       <c r="B166" s="4" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="5"/>
       <c r="B167" s="4" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="5"/>
       <c r="B168" s="4" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="5"/>
       <c r="B169" s="4" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="5"/>
       <c r="B170" s="4" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="5"/>
       <c r="B171" s="4" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="5"/>
       <c r="B172" s="4" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="5"/>
       <c r="B173" s="4" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="5"/>
       <c r="B174" s="4" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="5"/>
       <c r="B175" s="4" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="5"/>
       <c r="B176" s="4" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="5"/>
       <c r="B177" s="4" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="5"/>
       <c r="B178" s="4" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="5"/>
       <c r="B179" s="4" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="5"/>
       <c r="B180" s="4" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="5"/>
       <c r="B181" s="4" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="5"/>
       <c r="B182" s="4" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="5"/>
       <c r="B183" s="4" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="5"/>
       <c r="B184" s="4" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="5"/>
       <c r="B185" s="4" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="5"/>
       <c r="B186" s="4" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="5"/>
       <c r="B187" s="4" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="5"/>
       <c r="B188" s="4" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="5"/>
       <c r="B189" s="4" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="5"/>
       <c r="B190" s="4" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="5"/>
       <c r="B191" s="4" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="5"/>
       <c r="B192" s="4" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="5"/>
       <c r="B193" s="4" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="5"/>
       <c r="B194" s="4" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="5"/>
       <c r="B195" s="4" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="5"/>
       <c r="B196" s="4" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="5"/>
       <c r="B197" s="4" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="8"/>
-      <c r="B198" s="8"/>
-      <c r="C198" s="8"/>
-      <c r="D198" s="8"/>
-      <c r="E198" s="8"/>
-      <c r="F198" s="8"/>
+      <c r="A198" s="5"/>
+      <c r="B198" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="199">
-      <c r="A199" s="8"/>
-      <c r="B199" s="8"/>
-      <c r="C199" s="8"/>
-      <c r="D199" s="8"/>
-      <c r="E199" s="8"/>
-      <c r="F199" s="8"/>
+      <c r="A199" s="5"/>
+      <c r="B199" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="200">
-      <c r="A200" s="8"/>
-      <c r="B200" s="8"/>
-      <c r="C200" s="8"/>
-      <c r="D200" s="8"/>
-      <c r="E200" s="8"/>
-      <c r="F200" s="8"/>
+      <c r="A200" s="5"/>
+      <c r="B200" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="201">
-      <c r="A201" s="8"/>
-      <c r="B201" s="8"/>
-      <c r="C201" s="8"/>
-      <c r="D201" s="8"/>
-      <c r="E201" s="8"/>
-      <c r="F201" s="8"/>
+      <c r="A201" s="5"/>
+      <c r="B201" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="202">
-      <c r="A202" s="8"/>
-      <c r="B202" s="8"/>
-      <c r="C202" s="8"/>
-      <c r="D202" s="8"/>
-      <c r="E202" s="8"/>
-      <c r="F202" s="8"/>
+      <c r="A202" s="5"/>
+      <c r="B202" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="203">
-      <c r="A203" s="8"/>
-      <c r="B203" s="8"/>
-      <c r="C203" s="8"/>
-      <c r="D203" s="8"/>
-      <c r="E203" s="8"/>
-      <c r="F203" s="8"/>
+      <c r="A203" s="5"/>
+      <c r="B203" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="204">
-      <c r="A204" s="8"/>
-      <c r="B204" s="8"/>
-      <c r="C204" s="8"/>
-      <c r="D204" s="8"/>
-      <c r="E204" s="8"/>
-      <c r="F204" s="8"/>
+      <c r="A204" s="5"/>
+      <c r="B204" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="205">
-      <c r="A205" s="8"/>
-      <c r="B205" s="8"/>
-      <c r="C205" s="8"/>
-      <c r="D205" s="8"/>
-      <c r="E205" s="8"/>
-      <c r="F205" s="8"/>
+      <c r="A205" s="5"/>
+      <c r="B205" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="206">
-      <c r="A206" s="8"/>
-      <c r="B206" s="8"/>
-      <c r="C206" s="8"/>
-      <c r="D206" s="8"/>
-      <c r="E206" s="8"/>
-      <c r="F206" s="8"/>
+      <c r="A206" s="5"/>
+      <c r="B206" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="207">
-      <c r="A207" s="8"/>
-      <c r="B207" s="8"/>
-      <c r="C207" s="8"/>
-      <c r="D207" s="8"/>
-      <c r="E207" s="8"/>
-      <c r="F207" s="8"/>
+      <c r="A207" s="5"/>
+      <c r="B207" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="208">
-      <c r="A208" s="8"/>
-      <c r="B208" s="8"/>
-      <c r="C208" s="8"/>
-      <c r="D208" s="8"/>
-      <c r="E208" s="8"/>
-      <c r="F208" s="8"/>
+      <c r="A208" s="5"/>
+      <c r="B208" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="209">
-      <c r="A209" s="8"/>
-      <c r="B209" s="8"/>
-      <c r="C209" s="8"/>
-      <c r="D209" s="8"/>
-      <c r="E209" s="8"/>
-      <c r="F209" s="8"/>
+      <c r="A209" s="5"/>
+      <c r="B209" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="210">
-      <c r="A210" s="8"/>
-      <c r="B210" s="8"/>
-      <c r="C210" s="8"/>
-      <c r="D210" s="8"/>
-      <c r="E210" s="8"/>
-      <c r="F210" s="8"/>
+      <c r="A210" s="5"/>
+      <c r="B210" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="211">
-      <c r="A211" s="8"/>
-      <c r="B211" s="8"/>
-      <c r="C211" s="8"/>
-      <c r="D211" s="8"/>
-      <c r="E211" s="8"/>
-      <c r="F211" s="8"/>
+      <c r="A211" s="5"/>
+      <c r="B211" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="212">
-      <c r="A212" s="8"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="8"/>
-      <c r="D212" s="8"/>
-      <c r="E212" s="8"/>
-      <c r="F212" s="8"/>
+      <c r="A212" s="5"/>
+      <c r="B212" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="213">
-      <c r="A213" s="8"/>
-      <c r="B213" s="8"/>
-      <c r="C213" s="8"/>
-      <c r="D213" s="8"/>
-      <c r="E213" s="8"/>
-      <c r="F213" s="8"/>
+      <c r="A213" s="5"/>
+      <c r="B213" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="214">
-      <c r="A214" s="8"/>
-      <c r="B214" s="8"/>
-      <c r="C214" s="8"/>
-      <c r="D214" s="8"/>
-      <c r="E214" s="8"/>
-      <c r="F214" s="8"/>
+      <c r="A214" s="5"/>
+      <c r="B214" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="215">
-      <c r="A215" s="8"/>
-      <c r="B215" s="8"/>
-      <c r="C215" s="8"/>
-      <c r="D215" s="8"/>
-      <c r="E215" s="8"/>
-      <c r="F215" s="8"/>
+      <c r="A215" s="5"/>
+      <c r="B215" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="216">
-      <c r="A216" s="8"/>
-      <c r="B216" s="8"/>
-      <c r="C216" s="8"/>
-      <c r="D216" s="8"/>
-      <c r="E216" s="8"/>
-      <c r="F216" s="8"/>
+      <c r="A216" s="5"/>
+      <c r="B216" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="217">
-      <c r="A217" s="8"/>
-      <c r="B217" s="8"/>
-      <c r="C217" s="8"/>
-      <c r="D217" s="8"/>
-      <c r="E217" s="8"/>
-      <c r="F217" s="8"/>
+      <c r="A217" s="5"/>
+      <c r="B217" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="218">
-      <c r="A218" s="8"/>
-      <c r="B218" s="9"/>
-      <c r="C218" s="8"/>
-      <c r="D218" s="8"/>
-      <c r="E218" s="8"/>
-      <c r="F218" s="8"/>
+      <c r="A218" s="5"/>
+      <c r="B218" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="219">
-      <c r="A219" s="8"/>
-      <c r="B219" s="9"/>
-      <c r="C219" s="8"/>
-      <c r="D219" s="8"/>
-      <c r="E219" s="8"/>
-      <c r="F219" s="8"/>
+      <c r="A219" s="5"/>
+      <c r="B219" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="8"/>
-      <c r="B220" s="9"/>
+      <c r="B220" s="8"/>
       <c r="C220" s="8"/>
       <c r="D220" s="8"/>
       <c r="E220" s="8"/>
@@ -5789,7 +6194,7 @@
     </row>
     <row r="221">
       <c r="A221" s="8"/>
-      <c r="B221" s="9"/>
+      <c r="B221" s="8"/>
       <c r="C221" s="8"/>
       <c r="D221" s="8"/>
       <c r="E221" s="8"/>
@@ -5797,7 +6202,7 @@
     </row>
     <row r="222">
       <c r="A222" s="8"/>
-      <c r="B222" s="9"/>
+      <c r="B222" s="8"/>
       <c r="C222" s="8"/>
       <c r="D222" s="8"/>
       <c r="E222" s="8"/>
@@ -5805,7 +6210,7 @@
     </row>
     <row r="223">
       <c r="A223" s="8"/>
-      <c r="B223" s="9"/>
+      <c r="B223" s="8"/>
       <c r="C223" s="8"/>
       <c r="D223" s="8"/>
       <c r="E223" s="8"/>
@@ -5813,7 +6218,7 @@
     </row>
     <row r="224">
       <c r="A224" s="8"/>
-      <c r="B224" s="9"/>
+      <c r="B224" s="8"/>
       <c r="C224" s="8"/>
       <c r="D224" s="8"/>
       <c r="E224" s="8"/>
@@ -5821,7 +6226,7 @@
     </row>
     <row r="225">
       <c r="A225" s="8"/>
-      <c r="B225" s="9"/>
+      <c r="B225" s="8"/>
       <c r="C225" s="8"/>
       <c r="D225" s="8"/>
       <c r="E225" s="8"/>
@@ -5829,7 +6234,7 @@
     </row>
     <row r="226">
       <c r="A226" s="8"/>
-      <c r="B226" s="9"/>
+      <c r="B226" s="8"/>
       <c r="C226" s="8"/>
       <c r="D226" s="8"/>
       <c r="E226" s="8"/>
@@ -5837,7 +6242,7 @@
     </row>
     <row r="227">
       <c r="A227" s="8"/>
-      <c r="B227" s="9"/>
+      <c r="B227" s="8"/>
       <c r="C227" s="8"/>
       <c r="D227" s="8"/>
       <c r="E227" s="8"/>
@@ -5845,7 +6250,7 @@
     </row>
     <row r="228">
       <c r="A228" s="8"/>
-      <c r="B228" s="9"/>
+      <c r="B228" s="8"/>
       <c r="C228" s="8"/>
       <c r="D228" s="8"/>
       <c r="E228" s="8"/>
@@ -5853,7 +6258,7 @@
     </row>
     <row r="229">
       <c r="A229" s="8"/>
-      <c r="B229" s="9"/>
+      <c r="B229" s="8"/>
       <c r="C229" s="8"/>
       <c r="D229" s="8"/>
       <c r="E229" s="8"/>
@@ -5861,7 +6266,7 @@
     </row>
     <row r="230">
       <c r="A230" s="8"/>
-      <c r="B230" s="9"/>
+      <c r="B230" s="8"/>
       <c r="C230" s="8"/>
       <c r="D230" s="8"/>
       <c r="E230" s="8"/>
@@ -5869,7 +6274,7 @@
     </row>
     <row r="231">
       <c r="A231" s="8"/>
-      <c r="B231" s="9"/>
+      <c r="B231" s="8"/>
       <c r="C231" s="8"/>
       <c r="D231" s="8"/>
       <c r="E231" s="8"/>
@@ -5877,7 +6282,7 @@
     </row>
     <row r="232">
       <c r="A232" s="8"/>
-      <c r="B232" s="9"/>
+      <c r="B232" s="8"/>
       <c r="C232" s="8"/>
       <c r="D232" s="8"/>
       <c r="E232" s="8"/>
@@ -5885,7 +6290,7 @@
     </row>
     <row r="233">
       <c r="A233" s="8"/>
-      <c r="B233" s="9"/>
+      <c r="B233" s="8"/>
       <c r="C233" s="8"/>
       <c r="D233" s="8"/>
       <c r="E233" s="8"/>
@@ -5893,7 +6298,7 @@
     </row>
     <row r="234">
       <c r="A234" s="8"/>
-      <c r="B234" s="9"/>
+      <c r="B234" s="8"/>
       <c r="C234" s="8"/>
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
@@ -5901,7 +6306,7 @@
     </row>
     <row r="235">
       <c r="A235" s="8"/>
-      <c r="B235" s="9"/>
+      <c r="B235" s="8"/>
       <c r="C235" s="8"/>
       <c r="D235" s="8"/>
       <c r="E235" s="8"/>
@@ -5909,7 +6314,7 @@
     </row>
     <row r="236">
       <c r="A236" s="8"/>
-      <c r="B236" s="9"/>
+      <c r="B236" s="8"/>
       <c r="C236" s="8"/>
       <c r="D236" s="8"/>
       <c r="E236" s="8"/>
@@ -5917,7 +6322,7 @@
     </row>
     <row r="237">
       <c r="A237" s="8"/>
-      <c r="B237" s="9"/>
+      <c r="B237" s="8"/>
       <c r="C237" s="8"/>
       <c r="D237" s="8"/>
       <c r="E237" s="8"/>
@@ -5925,7 +6330,7 @@
     </row>
     <row r="238">
       <c r="A238" s="8"/>
-      <c r="B238" s="9"/>
+      <c r="B238" s="8"/>
       <c r="C238" s="8"/>
       <c r="D238" s="8"/>
       <c r="E238" s="8"/>
@@ -5933,7 +6338,7 @@
     </row>
     <row r="239">
       <c r="A239" s="8"/>
-      <c r="B239" s="9"/>
+      <c r="B239" s="8"/>
       <c r="C239" s="8"/>
       <c r="D239" s="8"/>
       <c r="E239" s="8"/>
@@ -6363,6 +6768,182 @@
       <c r="E292" s="8"/>
       <c r="F292" s="8"/>
     </row>
+    <row r="293">
+      <c r="A293" s="8"/>
+      <c r="B293" s="9"/>
+      <c r="C293" s="8"/>
+      <c r="D293" s="8"/>
+      <c r="E293" s="8"/>
+      <c r="F293" s="8"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="8"/>
+      <c r="B294" s="9"/>
+      <c r="C294" s="8"/>
+      <c r="D294" s="8"/>
+      <c r="E294" s="8"/>
+      <c r="F294" s="8"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="8"/>
+      <c r="B295" s="9"/>
+      <c r="C295" s="8"/>
+      <c r="D295" s="8"/>
+      <c r="E295" s="8"/>
+      <c r="F295" s="8"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="8"/>
+      <c r="B296" s="9"/>
+      <c r="C296" s="8"/>
+      <c r="D296" s="8"/>
+      <c r="E296" s="8"/>
+      <c r="F296" s="8"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="8"/>
+      <c r="B297" s="9"/>
+      <c r="C297" s="8"/>
+      <c r="D297" s="8"/>
+      <c r="E297" s="8"/>
+      <c r="F297" s="8"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="8"/>
+      <c r="B298" s="9"/>
+      <c r="C298" s="8"/>
+      <c r="D298" s="8"/>
+      <c r="E298" s="8"/>
+      <c r="F298" s="8"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="8"/>
+      <c r="B299" s="9"/>
+      <c r="C299" s="8"/>
+      <c r="D299" s="8"/>
+      <c r="E299" s="8"/>
+      <c r="F299" s="8"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="8"/>
+      <c r="B300" s="9"/>
+      <c r="C300" s="8"/>
+      <c r="D300" s="8"/>
+      <c r="E300" s="8"/>
+      <c r="F300" s="8"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="8"/>
+      <c r="B301" s="9"/>
+      <c r="C301" s="8"/>
+      <c r="D301" s="8"/>
+      <c r="E301" s="8"/>
+      <c r="F301" s="8"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="8"/>
+      <c r="B302" s="9"/>
+      <c r="C302" s="8"/>
+      <c r="D302" s="8"/>
+      <c r="E302" s="8"/>
+      <c r="F302" s="8"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="8"/>
+      <c r="B303" s="9"/>
+      <c r="C303" s="8"/>
+      <c r="D303" s="8"/>
+      <c r="E303" s="8"/>
+      <c r="F303" s="8"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="8"/>
+      <c r="B304" s="9"/>
+      <c r="C304" s="8"/>
+      <c r="D304" s="8"/>
+      <c r="E304" s="8"/>
+      <c r="F304" s="8"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="8"/>
+      <c r="B305" s="9"/>
+      <c r="C305" s="8"/>
+      <c r="D305" s="8"/>
+      <c r="E305" s="8"/>
+      <c r="F305" s="8"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="8"/>
+      <c r="B306" s="9"/>
+      <c r="C306" s="8"/>
+      <c r="D306" s="8"/>
+      <c r="E306" s="8"/>
+      <c r="F306" s="8"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="8"/>
+      <c r="B307" s="9"/>
+      <c r="C307" s="8"/>
+      <c r="D307" s="8"/>
+      <c r="E307" s="8"/>
+      <c r="F307" s="8"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="8"/>
+      <c r="B308" s="9"/>
+      <c r="C308" s="8"/>
+      <c r="D308" s="8"/>
+      <c r="E308" s="8"/>
+      <c r="F308" s="8"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="8"/>
+      <c r="B309" s="9"/>
+      <c r="C309" s="8"/>
+      <c r="D309" s="8"/>
+      <c r="E309" s="8"/>
+      <c r="F309" s="8"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="8"/>
+      <c r="B310" s="9"/>
+      <c r="C310" s="8"/>
+      <c r="D310" s="8"/>
+      <c r="E310" s="8"/>
+      <c r="F310" s="8"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="8"/>
+      <c r="B311" s="9"/>
+      <c r="C311" s="8"/>
+      <c r="D311" s="8"/>
+      <c r="E311" s="8"/>
+      <c r="F311" s="8"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="8"/>
+      <c r="B312" s="9"/>
+      <c r="C312" s="8"/>
+      <c r="D312" s="8"/>
+      <c r="E312" s="8"/>
+      <c r="F312" s="8"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="8"/>
+      <c r="B313" s="9"/>
+      <c r="C313" s="8"/>
+      <c r="D313" s="8"/>
+      <c r="E313" s="8"/>
+      <c r="F313" s="8"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="8"/>
+      <c r="B314" s="9"/>
+      <c r="C314" s="8"/>
+      <c r="D314" s="8"/>
+      <c r="E314" s="8"/>
+      <c r="F314" s="8"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/fuelhunter_languages.xlsx
+++ b/fuelhunter_languages.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="664">
   <si>
     <t>COMMENT</t>
   </si>
@@ -1108,6 +1108,9 @@
     <t>degvielas uzpildes kompānijas</t>
   </si>
   <si>
+    <t>Rīga - 1 degvielas uzpildes kompānija</t>
+  </si>
+  <si>
     <t>areas_fuel_company</t>
   </si>
   <si>
@@ -1115,6 +1118,18 @@
   </si>
   <si>
     <t>degvielas uzpildes kompānija</t>
+  </si>
+  <si>
+    <t>Nav ieslēgta neviena degvielas uzpildes kompānijas</t>
+  </si>
+  <si>
+    <t>areas_fuel_company_empty_description</t>
+  </si>
+  <si>
+    <t>No fuel companies</t>
+  </si>
+  <si>
+    <t>Nav ieslēgta neviena degvielas uzpildes kompānija</t>
   </si>
   <si>
     <t>areas_name_title_description</t>
@@ -4044,328 +4059,328 @@
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="4"/>
+      <c r="A101" s="4" t="s">
+        <v>369</v>
+      </c>
       <c r="B101" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>162</v>
+        <v>381</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>162</v>
+        <v>381</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>162</v>
+        <v>381</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>260</v>
+        <v>162</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>260</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>187</v>
+        <v>385</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>188</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>383</v>
+        <v>187</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>384</v>
+        <v>188</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>385</v>
+        <v>189</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>384</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E108" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
+      <c r="A113" s="4"/>
+      <c r="B113" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="E114" s="4" t="s">
+      <c r="A114" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="F114" s="4" t="s">
-        <v>406</v>
-      </c>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
     </row>
     <row r="115">
-      <c r="A115" s="5"/>
+      <c r="A115" s="4" t="s">
+        <v>408</v>
+      </c>
       <c r="B115" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E115" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F115" s="4" t="s">
         <v>411</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="5"/>
       <c r="B116" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E116" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="5"/>
       <c r="B117" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E117" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F117" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="F117" s="4" t="s">
-        <v>418</v>
-      </c>
     </row>
     <row r="118">
-      <c r="A118" s="4" t="s">
-        <v>420</v>
-      </c>
+      <c r="A118" s="5"/>
       <c r="B118" s="4" t="s">
         <v>421</v>
       </c>
@@ -4383,45 +4398,45 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="5"/>
+      <c r="A119" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="B119" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E119" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="F119" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="5"/>
       <c r="B120" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E120" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="F120" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="F120" s="4" t="s">
-        <v>431</v>
-      </c>
     </row>
     <row r="121">
-      <c r="A121" s="4" t="s">
-        <v>433</v>
-      </c>
+      <c r="A121" s="5"/>
       <c r="B121" s="4" t="s">
         <v>434</v>
       </c>
@@ -4439,50 +4454,50 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="5"/>
+      <c r="A122" s="4" t="s">
+        <v>438</v>
+      </c>
       <c r="B122" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E122" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F122" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="5"/>
       <c r="B123" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E123" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="F123" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="F123" s="4" t="s">
-        <v>446</v>
-      </c>
     </row>
     <row r="124">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="5"/>
+      <c r="B124" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="C124" s="4" t="s">
         <v>448</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>449</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>449</v>
@@ -4491,38 +4506,38 @@
         <v>450</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E125" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="F125" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>458</v>
@@ -4555,1642 +4570,1654 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="5"/>
+      <c r="A128" s="4" t="s">
+        <v>465</v>
+      </c>
       <c r="B128" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="5"/>
       <c r="B129" s="4" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="5"/>
       <c r="B130" s="4" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
+      <c r="A131" s="5"/>
+      <c r="B131" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="C132" s="4" t="s">
+      <c r="A132" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="D133" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="E132" s="4" t="s">
+      <c r="E133" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="F132" s="4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="5"/>
-      <c r="B133" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="C133" s="4" t="s">
+      <c r="F133" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="5"/>
+      <c r="B134" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D134" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E133" s="4" t="s">
+      <c r="E134" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="F134" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-    </row>
     <row r="135">
-      <c r="A135" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="C135" s="4" t="s">
+      <c r="A135" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="D136" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="E135" s="4" t="s">
+      <c r="E136" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="F135" s="4" t="s">
+      <c r="F136" s="4" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="5"/>
-      <c r="B136" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="5"/>
       <c r="B137" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E137" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="F137" s="4" t="s">
         <v>486</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="5"/>
       <c r="B138" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E138" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="F138" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="5"/>
       <c r="B139" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E139" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="F139" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="5"/>
       <c r="B140" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="C140" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="D140" s="6" t="s">
+      <c r="C140" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="E140" s="6" t="s">
+      <c r="D140" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="F140" s="6" t="s">
-        <v>497</v>
+      <c r="E140" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
+      <c r="A141" s="5"/>
+      <c r="B141" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="142">
-      <c r="A142" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="E142" s="4" t="s">
+      <c r="A142" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="F142" s="4" t="s">
-        <v>503</v>
-      </c>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
+      <c r="B143" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" s="5"/>
-      <c r="B144" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>506</v>
-      </c>
+      <c r="A144" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
     </row>
     <row r="145">
       <c r="A145" s="5"/>
       <c r="B145" s="4" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="5"/>
       <c r="B146" s="4" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="5"/>
       <c r="B147" s="4" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="5"/>
       <c r="B148" s="4" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="5"/>
       <c r="B149" s="4" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="5"/>
       <c r="B150" s="4" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="5"/>
       <c r="B151" s="4" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="5"/>
       <c r="B152" s="4" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="5"/>
       <c r="B153" s="4" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="5"/>
       <c r="B154" s="4" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="5"/>
       <c r="B155" s="4" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="5"/>
       <c r="B156" s="4" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="5"/>
       <c r="B157" s="4" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="5"/>
       <c r="B158" s="4" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="5"/>
       <c r="B159" s="4" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="5"/>
       <c r="B160" s="4" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="5"/>
       <c r="B161" s="4" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="5"/>
       <c r="B162" s="4" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="5"/>
       <c r="B163" s="4" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="5"/>
       <c r="B164" s="4" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="5"/>
       <c r="B165" s="4" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="5"/>
       <c r="B166" s="4" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="5"/>
       <c r="B167" s="4" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="5"/>
       <c r="B168" s="4" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="5"/>
       <c r="B169" s="4" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="5"/>
       <c r="B170" s="4" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="5"/>
       <c r="B171" s="4" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="5"/>
       <c r="B172" s="4" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="5"/>
       <c r="B173" s="4" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="5"/>
       <c r="B174" s="4" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="5"/>
       <c r="B175" s="4" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="5"/>
       <c r="B176" s="4" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="5"/>
       <c r="B177" s="4" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="5"/>
       <c r="B178" s="4" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="5"/>
       <c r="B179" s="4" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="5"/>
       <c r="B180" s="4" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="5"/>
       <c r="B181" s="4" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="5"/>
       <c r="B182" s="4" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="5"/>
       <c r="B183" s="4" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="5"/>
       <c r="B184" s="4" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="5"/>
       <c r="B185" s="4" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="5"/>
       <c r="B186" s="4" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="5"/>
       <c r="B187" s="4" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="5"/>
       <c r="B188" s="4" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="5"/>
       <c r="B189" s="4" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="5"/>
       <c r="B190" s="4" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="5"/>
       <c r="B191" s="4" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="5"/>
       <c r="B192" s="4" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="5"/>
       <c r="B193" s="4" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="5"/>
       <c r="B194" s="4" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="5"/>
       <c r="B195" s="4" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="5"/>
       <c r="B196" s="4" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="5"/>
       <c r="B197" s="4" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="5"/>
       <c r="B198" s="4" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="5"/>
       <c r="B199" s="4" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="5"/>
       <c r="B200" s="4" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="5"/>
       <c r="B201" s="4" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="5"/>
       <c r="B202" s="4" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="5"/>
       <c r="B203" s="4" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="5"/>
       <c r="B204" s="4" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="5"/>
       <c r="B205" s="4" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="5"/>
       <c r="B206" s="4" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="5"/>
       <c r="B207" s="4" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="5"/>
       <c r="B208" s="4" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="5"/>
       <c r="B209" s="4" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="5"/>
       <c r="B210" s="4" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="5"/>
       <c r="B211" s="4" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="5"/>
       <c r="B212" s="4" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="5"/>
       <c r="B213" s="4" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="5"/>
       <c r="B214" s="4" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="5"/>
       <c r="B215" s="4" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="5"/>
       <c r="B216" s="4" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="5"/>
       <c r="B217" s="4" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="5"/>
       <c r="B218" s="4" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="5"/>
       <c r="B219" s="4" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="8"/>
-      <c r="B220" s="8"/>
-      <c r="C220" s="8"/>
-      <c r="D220" s="8"/>
-      <c r="E220" s="8"/>
-      <c r="F220" s="8"/>
+      <c r="A220" s="5"/>
+      <c r="B220" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="8"/>
@@ -6346,7 +6373,7 @@
     </row>
     <row r="240">
       <c r="A240" s="8"/>
-      <c r="B240" s="9"/>
+      <c r="B240" s="8"/>
       <c r="C240" s="8"/>
       <c r="D240" s="8"/>
       <c r="E240" s="8"/>
@@ -6944,6 +6971,14 @@
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
     </row>
+    <row r="315">
+      <c r="A315" s="8"/>
+      <c r="B315" s="9"/>
+      <c r="C315" s="8"/>
+      <c r="D315" s="8"/>
+      <c r="E315" s="8"/>
+      <c r="F315" s="8"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
